--- a/results-store-2.xlsx
+++ b/results-store-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/eh555_sussex_ac_uk/Documents/Documents/2-Proposal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="8_{372AA814-B1E8-4BDB-8C12-AF40424DF215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBAC4B7F-8282-4C38-BF15-B8BCAC52C3F5}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{372AA814-B1E8-4BDB-8C12-AF40424DF215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0B44D4-3D12-45B3-AF58-169189C38FFC}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="510" windowWidth="28650" windowHeight="14550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28635" yWindow="195" windowWidth="28620" windowHeight="14550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train_per_model" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="test_per_K" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="121">
   <si>
     <t>layers</t>
   </si>
@@ -414,6 +415,12 @@
   </si>
   <si>
     <t>Tested with K range of 0.25 to 4</t>
+  </si>
+  <si>
+    <t>Run with Laptop, using proc.time()</t>
+  </si>
+  <si>
+    <t>Again with K range of 0.25 to 4</t>
   </si>
 </sst>
 </file>
@@ -816,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1214"/>
+  <dimension ref="A1:P1212"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:XFD115"/>
+    <sheetView topLeftCell="A85" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4275,31 +4282,31 @@
         <v>0.3</v>
       </c>
       <c r="G111">
-        <v>2.6558178000000002E-2</v>
+        <v>2.6558178192484901E-2</v>
       </c>
       <c r="H111">
-        <v>0.13643746600000001</v>
+        <v>0.13643746580857299</v>
       </c>
       <c r="I111">
-        <v>0.99994662899999998</v>
+        <v>0.99994662900730802</v>
       </c>
       <c r="J111" s="3">
-        <v>481.1793361</v>
+        <v>844.13</v>
       </c>
       <c r="K111" s="3">
-        <v>16.265468779999999</v>
+        <v>22.174999999999901</v>
       </c>
       <c r="L111" s="2">
-        <v>1.17E-6</v>
+        <v>1.1706950999723599E-6</v>
       </c>
       <c r="M111" s="2">
-        <v>1.1000000000000001E-6</v>
+        <v>1.09858489219555E-6</v>
       </c>
       <c r="N111" s="2">
-        <v>1.1200000000000001E-6</v>
+        <v>1.12214936353702E-6</v>
       </c>
       <c r="O111" s="2">
-        <v>9.78E-7</v>
+        <v>9.7814381050312201E-7</v>
       </c>
       <c r="P111" t="s">
         <v>100</v>
@@ -4316,7 +4323,10 @@
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
@@ -4327,29 +4337,107 @@
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G115"/>
-      <c r="H115"/>
-      <c r="I115"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" t="s">
+        <v>31</v>
+      </c>
+      <c r="K114" t="s">
+        <v>22</v>
+      </c>
+      <c r="L114" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" t="s">
+        <v>30</v>
+      </c>
+      <c r="N114" t="s">
+        <v>29</v>
+      </c>
+      <c r="O114" t="s">
+        <v>111</v>
+      </c>
+      <c r="P114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>710880</v>
+      </c>
+      <c r="F115">
+        <v>0.3</v>
+      </c>
+      <c r="G115">
+        <v>2.6558178192484901E-2</v>
+      </c>
+      <c r="H115">
+        <v>0.13643746580857299</v>
+      </c>
+      <c r="I115">
+        <v>0.99994662900730802</v>
+      </c>
+      <c r="J115" s="3">
+        <v>513.08999999999901</v>
+      </c>
+      <c r="K115" s="3">
+        <v>12.137499999999999</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1.1706950999723599E-6</v>
+      </c>
+      <c r="M115" s="2">
+        <v>1.09858489219555E-6</v>
+      </c>
+      <c r="N115" s="2">
+        <v>1.12214936353702E-6</v>
+      </c>
+      <c r="O115" s="2">
+        <v>9.7814381050312201E-7</v>
+      </c>
+      <c r="P115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
@@ -4360,7 +4448,7 @@
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
@@ -4371,7 +4459,7 @@
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
@@ -4382,7 +4470,7 @@
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119"/>
@@ -4393,7 +4481,7 @@
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
@@ -4404,7 +4492,7 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
@@ -4415,7 +4503,7 @@
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
@@ -4426,7 +4514,7 @@
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
@@ -4437,7 +4525,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
@@ -4448,7 +4536,7 @@
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
@@ -4459,7 +4547,7 @@
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
@@ -4470,7 +4558,7 @@
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
@@ -4481,7 +4569,7 @@
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="7:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
@@ -16416,28 +16504,6 @@
       <c r="N1212" s="2"/>
       <c r="O1212" s="2"/>
     </row>
-    <row r="1213" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G1213"/>
-      <c r="H1213"/>
-      <c r="I1213"/>
-      <c r="J1213" s="3"/>
-      <c r="K1213" s="3"/>
-      <c r="L1213" s="2"/>
-      <c r="M1213" s="2"/>
-      <c r="N1213" s="2"/>
-      <c r="O1213" s="2"/>
-    </row>
-    <row r="1214" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G1214"/>
-      <c r="H1214"/>
-      <c r="I1214"/>
-      <c r="J1214" s="3"/>
-      <c r="K1214" s="3"/>
-      <c r="L1214" s="2"/>
-      <c r="M1214" s="2"/>
-      <c r="N1214" s="2"/>
-      <c r="O1214" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16447,10 +16513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241:N245"/>
+    <sheetView topLeftCell="A214" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248:N252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24794,28 +24860,28 @@
         <v>0.3</v>
       </c>
       <c r="F242">
-        <v>2.9209808E-2</v>
+        <v>2.9209807613334401E-2</v>
       </c>
       <c r="G242">
-        <v>0.140180741</v>
+        <v>0.14018074143846199</v>
       </c>
       <c r="H242">
-        <v>0.99994432300000002</v>
+        <v>0.99994432337531303</v>
       </c>
       <c r="I242" s="3">
-        <v>109.544172</v>
+        <v>195.11</v>
       </c>
       <c r="J242" s="3">
-        <v>16.31067801</v>
+        <v>21.8799999999999</v>
       </c>
       <c r="K242" s="2">
-        <v>1.1799999999999999E-6</v>
+        <v>1.17627121198893E-6</v>
       </c>
       <c r="L242" s="2">
-        <v>1.13E-6</v>
+        <v>1.1306093111307201E-6</v>
       </c>
       <c r="M242" s="2">
-        <v>1.1599999999999999E-6</v>
+        <v>1.1561598233119401E-6</v>
       </c>
       <c r="N242" t="s">
         <v>100</v>
@@ -24838,28 +24904,28 @@
         <v>0.3</v>
       </c>
       <c r="F243">
-        <v>4.1994706999999999E-2</v>
+        <v>4.1994707495142398E-2</v>
       </c>
       <c r="G243">
-        <v>0.148719622</v>
+        <v>0.14871962165171701</v>
       </c>
       <c r="H243">
-        <v>0.99994804999999998</v>
+        <v>0.99994804969971796</v>
       </c>
       <c r="I243" s="3">
-        <v>122.55250119999999</v>
+        <v>201.61</v>
       </c>
       <c r="J243" s="3">
-        <v>15.97171307</v>
+        <v>22.0899999999999</v>
       </c>
       <c r="K243" s="2">
-        <v>1.1400000000000001E-6</v>
+        <v>1.1449334351709599E-6</v>
       </c>
       <c r="L243" s="2">
-        <v>1.0300000000000001E-6</v>
+        <v>1.03164577473583E-6</v>
       </c>
       <c r="M243" s="2">
-        <v>1.0699999999999999E-6</v>
+        <v>1.0681957720215601E-6</v>
       </c>
       <c r="N243" t="s">
         <v>100</v>
@@ -24882,28 +24948,28 @@
         <v>0.3</v>
       </c>
       <c r="F244">
-        <v>-8.9260940000000007E-3</v>
+        <v>-8.9260942099392906E-3</v>
       </c>
       <c r="G244">
-        <v>0.12176015699999999</v>
+        <v>0.12176015704606501</v>
       </c>
       <c r="H244">
-        <v>0.99995215699999995</v>
+        <v>0.99995215739017895</v>
       </c>
       <c r="I244" s="3">
-        <v>122.520031</v>
+        <v>222.34</v>
       </c>
       <c r="J244" s="3">
-        <v>16.16421914</v>
+        <v>22.0199999999999</v>
       </c>
       <c r="K244" s="2">
-        <v>1.0499999999999999E-6</v>
+        <v>1.04692662716843E-6</v>
       </c>
       <c r="L244" s="2">
-        <v>9.5999999999999991E-7</v>
+        <v>9.6043711960798291E-7</v>
       </c>
       <c r="M244" s="2">
-        <v>9.78E-7</v>
+        <v>9.7814381050312201E-7</v>
       </c>
       <c r="N244" t="s">
         <v>100</v>
@@ -24926,30 +24992,255 @@
         <v>0.3</v>
       </c>
       <c r="F245">
-        <v>4.3954291999999999E-2</v>
+        <v>4.39542918714022E-2</v>
       </c>
       <c r="G245">
-        <v>0.135089343</v>
+        <v>0.13508934309804799</v>
       </c>
       <c r="H245">
-        <v>0.99994198599999995</v>
+        <v>0.99994198556402403</v>
       </c>
       <c r="I245" s="3">
-        <v>126.56263180000001</v>
+        <v>225.07</v>
       </c>
       <c r="J245" s="3">
-        <v>16.615264889999999</v>
+        <v>22.709999999999901</v>
       </c>
       <c r="K245" s="2">
-        <v>1.31E-6</v>
+        <v>1.3146491255611101E-6</v>
       </c>
       <c r="L245" s="2">
-        <v>1.2699999999999999E-6</v>
+        <v>1.2716473633076801E-6</v>
       </c>
       <c r="M245" s="2">
-        <v>1.2899999999999999E-6</v>
+        <v>1.28609804831148E-6</v>
       </c>
       <c r="N245" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>3</v>
+      </c>
+      <c r="F248" t="s">
+        <v>4</v>
+      </c>
+      <c r="G248" t="s">
+        <v>5</v>
+      </c>
+      <c r="H248" t="s">
+        <v>6</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L248" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M248" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="N248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>710880</v>
+      </c>
+      <c r="E249">
+        <v>0.3</v>
+      </c>
+      <c r="F249">
+        <v>2.9209807613334401E-2</v>
+      </c>
+      <c r="G249">
+        <v>0.14018074143846199</v>
+      </c>
+      <c r="H249">
+        <v>0.99994432337531303</v>
+      </c>
+      <c r="I249" s="3">
+        <v>112.909999999999</v>
+      </c>
+      <c r="J249" s="3">
+        <v>12.2899999999999</v>
+      </c>
+      <c r="K249" s="2">
+        <v>1.17627121198893E-6</v>
+      </c>
+      <c r="L249" s="2">
+        <v>1.1306093111307201E-6</v>
+      </c>
+      <c r="M249" s="2">
+        <v>1.1561598233119401E-6</v>
+      </c>
+      <c r="N249" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>710880</v>
+      </c>
+      <c r="E250">
+        <v>0.3</v>
+      </c>
+      <c r="F250">
+        <v>4.1994707495142398E-2</v>
+      </c>
+      <c r="G250">
+        <v>0.14871962165171701</v>
+      </c>
+      <c r="H250">
+        <v>0.99994804969971796</v>
+      </c>
+      <c r="I250" s="3">
+        <v>129.65</v>
+      </c>
+      <c r="J250" s="3">
+        <v>13.079999999999901</v>
+      </c>
+      <c r="K250" s="2">
+        <v>1.1449334351709599E-6</v>
+      </c>
+      <c r="L250" s="2">
+        <v>1.03164577473583E-6</v>
+      </c>
+      <c r="M250" s="2">
+        <v>1.0681957720215601E-6</v>
+      </c>
+      <c r="N250" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251">
+        <v>710880</v>
+      </c>
+      <c r="E251">
+        <v>0.3</v>
+      </c>
+      <c r="F251">
+        <v>-8.9260942099392906E-3</v>
+      </c>
+      <c r="G251">
+        <v>0.12176015704606501</v>
+      </c>
+      <c r="H251">
+        <v>0.99995215739017895</v>
+      </c>
+      <c r="I251" s="3">
+        <v>130.61999999999901</v>
+      </c>
+      <c r="J251" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="K251" s="2">
+        <v>1.04692662716843E-6</v>
+      </c>
+      <c r="L251" s="2">
+        <v>9.6043711960798291E-7</v>
+      </c>
+      <c r="M251" s="2">
+        <v>9.7814381050312201E-7</v>
+      </c>
+      <c r="N251" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252">
+        <v>710880</v>
+      </c>
+      <c r="E252">
+        <v>0.3</v>
+      </c>
+      <c r="F252">
+        <v>4.39542918714022E-2</v>
+      </c>
+      <c r="G252">
+        <v>0.13508934309804799</v>
+      </c>
+      <c r="H252">
+        <v>0.99994198556402403</v>
+      </c>
+      <c r="I252" s="3">
+        <v>139.909999999999</v>
+      </c>
+      <c r="J252" s="3">
+        <v>11.6800000000002</v>
+      </c>
+      <c r="K252" s="2">
+        <v>1.3146491255611101E-6</v>
+      </c>
+      <c r="L252" s="2">
+        <v>1.2716473633076801E-6</v>
+      </c>
+      <c r="M252" s="2">
+        <v>1.28609804831148E-6</v>
+      </c>
+      <c r="N252" t="s">
         <v>100</v>
       </c>
     </row>
@@ -24961,10 +25252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149088EA-EE89-4913-8BD8-AB9DFE4F2867}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:P43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25937,34 +26228,34 @@
         <v>60120</v>
       </c>
       <c r="F39" s="2">
-        <v>9.78E-7</v>
+        <v>9.7814381050312201E-7</v>
       </c>
       <c r="G39" s="3">
-        <v>667.30087300000002</v>
+        <v>844.13</v>
       </c>
       <c r="H39" s="4">
-        <v>-9.6780679999999997E-3</v>
+        <v>-9.6780679046125102E-3</v>
       </c>
       <c r="I39" s="4">
-        <v>0.112100067</v>
+        <v>0.112100067466171</v>
       </c>
       <c r="J39" s="6">
-        <v>0.99995012500000002</v>
+        <v>0.99995012494452695</v>
       </c>
       <c r="K39" s="2">
-        <v>1.0300000000000001E-6</v>
+        <v>1.02678492451028E-6</v>
       </c>
       <c r="L39" s="5">
-        <v>1.313939524</v>
+        <v>1.86300000000001</v>
       </c>
       <c r="M39" s="5">
-        <v>0.59935046199999997</v>
+        <v>0.59935046206148701</v>
       </c>
       <c r="N39" s="5">
-        <v>1.381530586</v>
+        <v>1.3815305856282101</v>
       </c>
       <c r="O39" s="5">
-        <v>0.78218012400000003</v>
+        <v>0.78218012356672195</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>100</v>
@@ -26042,36 +26333,246 @@
         <v>60120</v>
       </c>
       <c r="F43" s="2">
+        <v>9.78E-7</v>
+      </c>
+      <c r="G43" s="3">
+        <v>844.13</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-0.13938386699999999</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.56448590600000004</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.99914861300000002</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2.37E-5</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1.819</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.59935046199999997</v>
+      </c>
+      <c r="N43" s="5">
+        <v>1.381530586</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.78218012400000003</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>60120</v>
+      </c>
+      <c r="F48" s="2">
         <v>9.7814381050312201E-7</v>
       </c>
-      <c r="G43" s="3">
-        <v>600.68035793304398</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G48" s="3">
+        <v>513.08999999999901</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-9.6780679046125102E-3</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.112100067466171</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.99995012494452695</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1.02678492451028E-6</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.81699999999996098</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.59935046206148701</v>
+      </c>
+      <c r="N48" s="5">
+        <v>1.3815305856282101</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.78218012356672195</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>60120</v>
+      </c>
+      <c r="F52" s="2">
+        <v>9.7814381050312201E-7</v>
+      </c>
+      <c r="G52" s="3">
+        <v>513.08999999999901</v>
+      </c>
+      <c r="H52" s="4">
         <v>-0.139383867494589</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I52" s="4">
         <v>0.56448590572977997</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J52" s="6">
         <v>0.99914861275915201</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K52" s="2">
         <v>2.3674524024298201E-5</v>
       </c>
-      <c r="L43" s="5">
-        <v>1.5370374917984</v>
-      </c>
-      <c r="M43" s="5">
+      <c r="L52" s="5">
+        <v>0.93099999999999405</v>
+      </c>
+      <c r="M52" s="5">
         <v>0.59935046206148701</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N52" s="5">
         <v>1.3815305856282101</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O52" s="5">
         <v>0.78218012356672195</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P52" s="5" t="s">
         <v>100</v>
       </c>
     </row>
@@ -26082,10 +26583,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA7905-EEB3-4C3A-B027-599D0122CD07}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+      <selection activeCell="A60" sqref="A60:Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27961,34 +28462,34 @@
         <v>10</v>
       </c>
       <c r="G55" s="2">
-        <v>9.78E-7</v>
+        <v>9.7814381050312201E-7</v>
       </c>
       <c r="H55" s="6">
-        <v>481.1793361</v>
+        <v>844.13</v>
       </c>
       <c r="I55" s="4">
-        <v>-2.260349E-2</v>
+        <v>-9.6780679046125102E-3</v>
       </c>
       <c r="J55" s="4">
-        <v>0.116138688</v>
+        <v>0.112100067466171</v>
       </c>
       <c r="K55" s="6">
-        <v>0.99995178799999995</v>
+        <v>0.99995012494452695</v>
       </c>
       <c r="L55" s="2">
-        <v>1.13E-6</v>
+        <v>1.02678492451028E-6</v>
       </c>
       <c r="M55" s="5">
-        <v>1.191995001</v>
+        <v>1.86300000000001</v>
       </c>
       <c r="N55" s="5">
-        <v>0.80400451399999995</v>
+        <v>0.76980668270978603</v>
       </c>
       <c r="O55" s="5">
-        <v>1.127832884</v>
+        <v>1.6613276106649999</v>
       </c>
       <c r="P55" s="5">
-        <v>0.32382836999999998</v>
+        <v>0.89152092795521398</v>
       </c>
       <c r="Q55" t="s">
         <v>100</v>
@@ -28014,34 +28515,34 @@
         <v>10</v>
       </c>
       <c r="G56" s="2">
-        <v>9.78E-7</v>
+        <v>9.7814381050312201E-7</v>
       </c>
       <c r="H56" s="6">
-        <v>481.1793361</v>
+        <v>844.13</v>
       </c>
       <c r="I56" s="4">
-        <v>-2.260349E-2</v>
+        <v>-9.6780679046125102E-3</v>
       </c>
       <c r="J56" s="4">
-        <v>0.116138688</v>
+        <v>0.112100067466171</v>
       </c>
       <c r="K56" s="6">
-        <v>0.99995178799999995</v>
+        <v>0.99995012494452695</v>
       </c>
       <c r="L56" s="2">
-        <v>1.13E-6</v>
+        <v>1.02678492451028E-6</v>
       </c>
       <c r="M56" s="5">
-        <v>1.191995001</v>
+        <v>1.86300000000001</v>
       </c>
       <c r="N56" s="5">
-        <v>0.47350318800000002</v>
+        <v>0.38882590635477698</v>
       </c>
       <c r="O56" s="5">
-        <v>1.0503470530000001</v>
+        <v>1.21754538129429</v>
       </c>
       <c r="P56" s="5">
-        <v>0.57684386399999998</v>
+        <v>0.82871947493951803</v>
       </c>
       <c r="Q56" t="s">
         <v>100</v>
@@ -28067,36 +28568,253 @@
         <v>10</v>
       </c>
       <c r="G57" s="2">
-        <v>9.78E-7</v>
+        <v>9.7814381050312201E-7</v>
       </c>
       <c r="H57" s="6">
-        <v>481.1793361</v>
+        <v>844.13</v>
       </c>
       <c r="I57" s="4">
-        <v>-2.260349E-2</v>
+        <v>-9.6780679046125102E-3</v>
       </c>
       <c r="J57" s="4">
-        <v>0.116138688</v>
+        <v>0.112100067466171</v>
       </c>
       <c r="K57" s="6">
-        <v>0.99995178799999995</v>
+        <v>0.99995012494452695</v>
       </c>
       <c r="L57" s="2">
-        <v>1.13E-6</v>
+        <v>1.02678492451028E-6</v>
       </c>
       <c r="M57" s="5">
-        <v>1.191995001</v>
+        <v>1.86300000000001</v>
       </c>
       <c r="N57" s="5">
-        <v>0.62838847499999995</v>
+        <v>0.63941879711989902</v>
       </c>
       <c r="O57" s="5">
-        <v>1.478783728</v>
+        <v>1.2657187649253301</v>
       </c>
       <c r="P57" s="5">
-        <v>0.85039525299999996</v>
+        <v>0.62629996780543296</v>
       </c>
       <c r="Q57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>60120</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2">
+        <v>9.7814381050312201E-7</v>
+      </c>
+      <c r="H61" s="6">
+        <v>513.08999999999901</v>
+      </c>
+      <c r="I61" s="4">
+        <v>-9.6780679046125102E-3</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0.112100067466171</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.99995012494452695</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1.02678492451028E-6</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0.81699999999996098</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.76980668270978603</v>
+      </c>
+      <c r="O61" s="5">
+        <v>1.6613276106649999</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.89152092795521398</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>60120</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2">
+        <v>9.7814381050312201E-7</v>
+      </c>
+      <c r="H62" s="6">
+        <v>513.08999999999901</v>
+      </c>
+      <c r="I62" s="4">
+        <v>-9.6780679046125102E-3</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0.112100067466171</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.99995012494452695</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1.02678492451028E-6</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.81699999999996098</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.38882590635477698</v>
+      </c>
+      <c r="O62" s="5">
+        <v>1.21754538129429</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.82871947493951803</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>60120</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2">
+        <v>9.7814381050312201E-7</v>
+      </c>
+      <c r="H63" s="6">
+        <v>513.08999999999901</v>
+      </c>
+      <c r="I63" s="4">
+        <v>-9.6780679046125102E-3</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.112100067466171</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.99995012494452695</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1.02678492451028E-6</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.81699999999996098</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.63941879711989902</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1.2657187649253301</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.62629996780543296</v>
+      </c>
+      <c r="Q63" t="s">
         <v>100</v>
       </c>
     </row>
